--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220501_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220501_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-01</t>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220501_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220501_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -748,7 +748,7 @@
     <t>EDAM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>MAGIC STRAWBERRY SOUND</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>VINE</t>
@@ -1239,7 +1236,7 @@
         <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1265,7 +1262,7 @@
         <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1317,7 +1314,7 @@
         <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1369,7 +1366,7 @@
         <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1395,7 +1392,7 @@
         <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1421,7 +1418,7 @@
         <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1473,7 +1470,7 @@
         <v>233</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1499,7 +1496,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1525,7 +1522,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1551,7 +1548,7 @@
         <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1577,7 +1574,7 @@
         <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1603,7 +1600,7 @@
         <v>233</v>
       </c>
       <c r="H16" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1629,7 +1626,7 @@
         <v>237</v>
       </c>
       <c r="H17" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1681,7 +1678,7 @@
         <v>229</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1707,7 +1704,7 @@
         <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1733,7 +1730,7 @@
         <v>239</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1785,7 +1782,7 @@
         <v>227</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1811,7 +1808,7 @@
         <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1837,7 +1834,7 @@
         <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1889,7 +1886,7 @@
         <v>239</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1915,7 +1912,7 @@
         <v>227</v>
       </c>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1941,7 +1938,7 @@
         <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1967,7 +1964,7 @@
         <v>242</v>
       </c>
       <c r="H30" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1993,7 +1990,7 @@
         <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2019,7 +2016,7 @@
         <v>244</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2045,7 +2042,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2071,7 +2068,7 @@
         <v>244</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2097,7 +2094,7 @@
         <v>245</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2123,7 +2120,7 @@
         <v>227</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2149,7 +2146,7 @@
         <v>227</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2175,7 +2172,7 @@
         <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2227,7 +2224,7 @@
         <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2279,7 +2276,7 @@
         <v>243</v>
       </c>
       <c r="H42" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2305,7 +2302,7 @@
         <v>227</v>
       </c>
       <c r="H43" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2331,7 +2328,7 @@
         <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2357,7 +2354,7 @@
         <v>227</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2409,7 +2406,7 @@
         <v>247</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,7 +2432,7 @@
         <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2461,7 +2458,7 @@
         <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2487,7 +2484,7 @@
         <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2513,7 +2510,7 @@
         <v>249</v>
       </c>
       <c r="H51" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2539,7 +2536,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2565,7 +2562,7 @@
         <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2591,7 +2588,7 @@
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2617,7 +2614,7 @@
         <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2643,7 +2640,7 @@
         <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2695,7 +2692,7 @@
         <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2747,7 +2744,7 @@
         <v>253</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2773,7 +2770,7 @@
         <v>254</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2825,7 +2822,7 @@
         <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2851,7 +2848,7 @@
         <v>227</v>
       </c>
       <c r="H64" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2903,7 +2900,7 @@
         <v>255</v>
       </c>
       <c r="H66" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2929,7 +2926,7 @@
         <v>227</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2981,7 +2978,7 @@
         <v>237</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3033,7 +3030,7 @@
         <v>257</v>
       </c>
       <c r="H71" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3059,7 +3056,7 @@
         <v>258</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3085,7 +3082,7 @@
         <v>259</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3111,7 +3108,7 @@
         <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3189,7 +3186,7 @@
         <v>261</v>
       </c>
       <c r="H77" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3215,7 +3212,7 @@
         <v>262</v>
       </c>
       <c r="H78" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3241,7 +3238,7 @@
         <v>263</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3267,7 +3264,7 @@
         <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3293,7 +3290,7 @@
         <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3319,7 +3316,7 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3345,7 +3342,7 @@
         <v>264</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3371,7 +3368,7 @@
         <v>237</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3394,10 +3391,10 @@
         <v>215</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3423,7 +3420,7 @@
         <v>257</v>
       </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3449,7 +3446,7 @@
         <v>263</v>
       </c>
       <c r="H87" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3498,10 +3495,10 @@
         <v>218</v>
       </c>
       <c r="G89" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3524,10 +3521,10 @@
         <v>219</v>
       </c>
       <c r="G90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H90" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3550,10 +3547,10 @@
         <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3579,7 +3576,7 @@
         <v>237</v>
       </c>
       <c r="H92" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3602,10 +3599,10 @@
         <v>220</v>
       </c>
       <c r="G93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H93" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3657,7 +3654,7 @@
         <v>239</v>
       </c>
       <c r="H95" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3680,10 +3677,10 @@
         <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3735,7 +3732,7 @@
         <v>231</v>
       </c>
       <c r="H98" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3758,10 +3755,10 @@
         <v>224</v>
       </c>
       <c r="G99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H99" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3787,7 +3784,7 @@
         <v>244</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3813,7 +3810,7 @@
         <v>246</v>
       </c>
       <c r="H101" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
